--- a/FUND.xlsx
+++ b/FUND.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8813C653-7FB2-4F70-BAAA-A4075D4EF224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEAF5D-41AC-4CF5-8C63-93567325EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,23 +239,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">2022/5/7 收益-23.47。 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>003318</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中证500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/5/7开始定投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2022/5/7大盘5星， 加大投入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/6/13暂停，离开低估。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/5/7开始定投，
+2022/6/13暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011608</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科创50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/6/13开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500低波动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/7/2暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/5/7 收益-23.47。 
+2022/7/2增大投资10-&gt;20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +314,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +339,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -498,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -551,24 +597,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,10 +610,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -860,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B14994-D38D-43BB-AFDD-3E08246235AB}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,12 +948,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -917,7 +988,7 @@
       <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="17" t="s">
@@ -937,7 +1008,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="61" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -950,18 +1021,20 @@
         <v>10</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="42"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="60">
         <v>161017</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -975,36 +1048,34 @@
         <v>20</v>
       </c>
       <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="40"/>
+      <c r="H4" s="17">
+        <v>10</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:19" s="43" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>20</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="22" t="s">
+      <c r="B5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="49" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1012,21 +1083,23 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="61">
         <v>519671</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30">
+        <v>11</v>
+      </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30">
         <v>100</v>
       </c>
       <c r="H6" s="30"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="47" t="s">
+      <c r="I6" s="39"/>
+      <c r="J6" s="41" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="33"/>
@@ -1041,49 +1114,49 @@
       <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="17">
-        <v>40</v>
-      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="17">
-        <v>10</v>
-      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="40"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="35" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="60">
         <v>217027</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="17">
+        <v>10</v>
+      </c>
       <c r="F8" s="17">
         <v>40</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="40"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="61" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1095,9 +1168,11 @@
         <v>50</v>
       </c>
       <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="48" t="s">
+      <c r="H9" s="30">
+        <v>10</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="42" t="s">
         <v>41</v>
       </c>
       <c r="K9" s="33"/>
@@ -1107,121 +1182,123 @@
       <c r="O9" s="33"/>
     </row>
     <row r="10" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="49"/>
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="30">
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30">
+        <v>10</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
       <c r="O10" s="33"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12">
-        <v>501050</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>10</v>
-      </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+    <row r="11" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="61">
+        <v>501050</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>10</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="22"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+    </row>
+    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4">
-        <v>50</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>20</v>
+      </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="22"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="63" t="s">
+        <v>60</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1232,326 +1309,359 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17">
-        <v>10</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="40"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="25">
-        <v>164906</v>
+        <v>5</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D16" s="17"/>
-      <c r="E16" s="17">
-        <v>100</v>
-      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="4"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H16" s="17">
+        <v>10</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="35"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+    </row>
+    <row r="17" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="25">
+        <v>164906</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="4">
-        <v>10</v>
-      </c>
-      <c r="E17" s="21"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
+        <v>100</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="17"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="17"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="25">
+        <v>7</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="17">
+        <v>10</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="60">
         <v>110031</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17">
-        <v>10</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="40"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-    </row>
-    <row r="19" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="50"/>
+      <c r="D19" s="17">
+        <v>10</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17">
+        <v>10</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="35"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="22"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+    <row r="20" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="59"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>10</v>
-      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="42"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="22"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="22"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B23" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C23" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30">
-        <v>10</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="47" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30">
+        <v>10</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-    </row>
-    <row r="23" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+    </row>
+    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B24" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="23">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
         <v>50</v>
       </c>
-      <c r="I23" s="43"/>
-      <c r="J23" s="22" t="s">
+      <c r="H24" s="23">
+        <v>50</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-    </row>
-    <row r="24" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>5</v>
-      </c>
-      <c r="B24" s="25">
-        <v>162412</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17">
-        <v>50</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17">
-        <v>26.25</v>
-      </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="19" t="s">
-        <v>33</v>
-      </c>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
     </row>
     <row r="25" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="25">
-        <v>501009</v>
+        <v>162412</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="17">
-        <v>10</v>
-      </c>
-      <c r="E25" s="17"/>
+        <v>15</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17">
+        <v>50</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
-        <v>10</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="48" t="s">
+        <v>26.25</v>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="25">
+        <v>501009</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="17">
+        <v>10</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17">
+        <v>10</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-    </row>
-    <row r="26" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+    </row>
+    <row r="27" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
         <v>7</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B27" s="62">
         <v>501090</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C27" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40">
-        <v>10</v>
-      </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="40"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="7">
-        <f>SUM(D27:H27)</f>
-        <v>736.25</v>
-      </c>
-      <c r="D27" s="6">
-        <f>SUM(D3:D26)</f>
-        <v>150</v>
-      </c>
-      <c r="E27" s="6">
-        <f>SUM(E3:E26)</f>
-        <v>170</v>
-      </c>
-      <c r="F27" s="6">
-        <f>SUM(F3:F26)</f>
-        <v>140</v>
-      </c>
-      <c r="G27" s="6">
-        <f>SUM(G3:G26)</f>
-        <v>160</v>
-      </c>
-      <c r="H27" s="6">
-        <f>SUM(H3:H26)</f>
-        <v>116.25</v>
-      </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="22"/>
+      <c r="C28" s="7">
+        <f>SUM(D28:H28)</f>
+        <v>787.25</v>
+      </c>
+      <c r="D28" s="6">
+        <f>SUM(D3:D27)</f>
+        <v>131</v>
+      </c>
+      <c r="E28" s="6">
+        <f>SUM(E3:E27)</f>
+        <v>180</v>
+      </c>
+      <c r="F28" s="6">
+        <f>SUM(F3:F27)</f>
+        <v>130</v>
+      </c>
+      <c r="G28" s="6">
+        <f>SUM(G3:G27)</f>
+        <v>200</v>
+      </c>
+      <c r="H28" s="6">
+        <f>SUM(H3:H27)</f>
+        <v>146.25</v>
+      </c>
+      <c r="I28" s="40"/>
+      <c r="J28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1582,12 +1692,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -2136,16 +2246,16 @@
       <c r="B23" s="25">
         <v>501090</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="34" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40">
-        <v>10</v>
-      </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35">
+        <v>10</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">

--- a/FUND.xlsx
+++ b/FUND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCEAF5D-41AC-4CF5-8C63-93567325EB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D96FFA-B2EE-499A-8BEE-1ECA2F063833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="975" windowWidth="18345" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202205-5星" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022/6/13暂停，离开低估。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2022/5/7开始定投，
 2022/6/13暂停</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +274,20 @@
   <si>
     <t>2022/5/7 收益-23.47。 
 2022/7/2增大投资10-&gt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/7/2暂停
+2022/8/31恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/8/31 start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/6/13暂停，离开低估。
+2022/8/31 start</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -614,13 +624,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,6 +655,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B14994-D38D-43BB-AFDD-3E08246235AB}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,12 +956,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1008,7 +1016,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1034,7 +1042,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="57">
         <v>161017</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -1063,11 +1071,11 @@
       <c r="A5" s="43">
         <v>3</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -1075,15 +1083,15 @@
       <c r="G5" s="45"/>
       <c r="H5" s="45"/>
       <c r="I5" s="46"/>
-      <c r="J5" s="49" t="s">
-        <v>54</v>
+      <c r="J5" s="47" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="58">
         <v>519671</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -1110,11 +1118,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>5</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1126,15 +1134,15 @@
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="35" t="s">
-        <v>59</v>
+      <c r="J7" s="42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="60">
+      <c r="B8" s="57">
         <v>217027</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -1156,7 +1164,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="29" t="s">
@@ -1185,11 +1193,11 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="D10" s="30">
         <v>20</v>
@@ -1202,7 +1210,7 @@
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
@@ -1211,16 +1219,16 @@
       <c r="O10" s="33"/>
     </row>
     <row r="11" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="33"/>
       <c r="L11" s="33"/>
       <c r="M11" s="33"/>
@@ -1231,7 +1239,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="58">
         <v>501050</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1254,29 +1262,29 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
         <v>2</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
     </row>
     <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1296,8 +1304,8 @@
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="37"/>
-      <c r="J14" s="63" t="s">
-        <v>60</v>
+      <c r="J14" s="60" t="s">
+        <v>59</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1391,7 +1399,7 @@
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="58" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -1413,7 +1421,7 @@
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="57">
         <v>110031</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -1436,16 +1444,16 @@
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="56"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
@@ -1455,7 +1463,7 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="58" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -1467,7 +1475,9 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="37"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1477,7 +1487,7 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="58" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -1501,7 +1511,7 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="58" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="29" t="s">
@@ -1532,7 +1542,7 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -1616,7 +1626,7 @@
       <c r="A27" s="19">
         <v>7</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="59">
         <v>501090</v>
       </c>
       <c r="C27" s="34" t="s">
@@ -1629,7 +1639,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="38"/>
       <c r="J27" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1692,12 +1702,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>

--- a/FUND.xlsx
+++ b/FUND.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D96FFA-B2EE-499A-8BEE-1ECA2F063833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C5789-24B1-4375-9B27-48F18C9EABE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="975" windowWidth="18345" windowHeight="13845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="202205-5星" sheetId="2" r:id="rId1"/>
+    <sheet name="202210-5星" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022/7/2暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2022/5/7 收益-23.47。 
 2022/7/2增大投资10-&gt;20</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +284,23 @@
   <si>
     <t>2022/6/13暂停，离开低估。
 2022/8/31 start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/7/2暂停
+2022/10/10恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>090010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大成中证红利指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/10/10开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +336,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="新宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +402,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -554,11 +589,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -576,24 +610,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -603,21 +626,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -650,21 +669,25 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -939,15 +962,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B14994-D38D-43BB-AFDD-3E08246235AB}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="10" max="10" width="54.25" customWidth="1"/>
@@ -955,728 +982,625 @@
     <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="49" t="s">
         <v>29</v>
       </c>
+      <c r="C1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>44</v>
+      </c>
       <c r="C2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B3" s="45">
+        <v>161017</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="B4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B5" s="46">
+        <v>519671</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="22">
+        <v>11</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
+        <v>100</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>217027</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
+        <v>50</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22">
+        <v>10</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="22">
         <v>20</v>
       </c>
-      <c r="E3" s="4">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="57">
-        <v>161017</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17">
-        <v>10</v>
-      </c>
-      <c r="F4" s="17">
-        <v>20</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
-        <v>10</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-    </row>
-    <row r="5" spans="1:19" s="43" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="43">
-        <v>3</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="58">
-        <v>519671</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="30">
-        <v>11</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30">
-        <v>100</v>
-      </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="57">
-        <v>217027</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17">
-        <v>10</v>
-      </c>
-      <c r="F8" s="17">
-        <v>40</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
-        <v>50</v>
-      </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30">
-        <v>10</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-    </row>
-    <row r="10" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="30">
-        <v>20</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30">
-        <v>10</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="42" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22">
+        <v>10</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-    </row>
-    <row r="11" spans="1:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <v>10</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="58">
+      <c r="B12" s="46">
         <v>501050</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
-        <v>10</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>10</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-    </row>
-    <row r="14" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
         <v>20</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H14" s="3"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>50</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
-        <v>10</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="35"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-    </row>
-    <row r="17" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="12">
         <v>164906</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="4">
-        <v>10</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="17">
-        <v>10</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="45">
         <v>110031</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="17">
-        <v>10</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17">
-        <v>10</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="35"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-    </row>
-    <row r="20" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="56"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="44"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="22"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30">
-        <v>10</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="41" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22">
+        <v>10</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-    </row>
-    <row r="24" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
         <v>50</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="17">
         <v>50</v>
       </c>
-      <c r="I24" s="38"/>
-      <c r="J24" s="22" t="s">
+      <c r="I24" s="26"/>
+      <c r="J24" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-    </row>
-    <row r="25" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="12">
         <v>162412</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
         <v>50</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
         <v>26.25</v>
       </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="42" t="s">
+      <c r="I25" s="26"/>
+      <c r="J25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="12">
         <v>501009</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="17">
-        <v>10</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17">
-        <v>10</v>
-      </c>
-      <c r="I26" s="38"/>
-      <c r="J26" s="42" t="s">
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-    </row>
-    <row r="27" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+    </row>
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="45">
         <v>501090</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <f>SUM(D28:H28)</f>
-        <v>787.25</v>
-      </c>
-      <c r="D28" s="6">
-        <f>SUM(D3:D27)</f>
-        <v>131</v>
-      </c>
-      <c r="E28" s="6">
-        <f>SUM(E3:E27)</f>
+        <v>807.25</v>
+      </c>
+      <c r="D28" s="5">
+        <f>SUM(D2:D27)</f>
+        <v>141</v>
+      </c>
+      <c r="E28" s="5">
+        <f>SUM(E2:E27)</f>
         <v>180</v>
       </c>
-      <c r="F28" s="6">
-        <f>SUM(F3:F27)</f>
-        <v>130</v>
-      </c>
-      <c r="G28" s="6">
-        <f>SUM(G3:G27)</f>
+      <c r="F28" s="5">
+        <f>SUM(F2:F27)</f>
+        <v>140</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM(G2:G27)</f>
         <v>200</v>
       </c>
-      <c r="H28" s="6">
-        <f>SUM(H3:H27)</f>
+      <c r="H28" s="5">
+        <f>SUM(H2:H27)</f>
         <v>146.25</v>
       </c>
-      <c r="I28" s="40"/>
-      <c r="J28" s="22"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:H1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1685,15 +1609,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="7" customWidth="1"/>
     <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
     <col min="10" max="10" width="54.25" customWidth="1"/>
@@ -1701,494 +1625,390 @@
     <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:12" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
         <v>20</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="22"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="27">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30">
-        <v>10</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
+        <v>10</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-    </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="23">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="17">
         <v>50</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17">
-        <v>10</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-    </row>
-    <row r="11" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="12">
         <v>110031</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
-        <v>10</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-    </row>
-    <row r="12" spans="1:19" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="27">
-        <v>10</v>
-      </c>
-      <c r="B12" s="28" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
         <v>50</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="26" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-    </row>
-    <row r="13" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="12">
         <v>161017</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17">
-        <v>10</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-    </row>
-    <row r="14" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="12">
         <v>162412</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>50</v>
       </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>26.25</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="4"/>
+      <c r="J14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="12">
         <v>164906</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-    </row>
-    <row r="16" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="12">
         <v>217027</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="12">
         <v>501009</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="17">
-        <v>10</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17">
-        <v>10</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="26" t="s">
+      <c r="D17" s="3">
+        <v>10</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>501050</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>10</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" s="27" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
+      <c r="C18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="20">
         <v>519671</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30">
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22">
         <v>100</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="32" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="19" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2196,120 +2016,120 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17">
-        <v>10</v>
-      </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="4">
-        <v>10</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="12">
         <v>501090</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35">
-        <v>10</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="18"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16">
+        <v>10</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <f>SUM(D25:H25)</f>
         <v>586.25</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f>SUM(D3:D23)</f>
         <v>80</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" ref="E25:G25" si="0">SUM(E3:E23)</f>
         <v>170</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f>SUM(H3:H24)</f>
         <v>116.25</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O24">

--- a/FUND.xlsx
+++ b/FUND.xlsx
@@ -1,39 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2C5789-24B1-4375-9B27-48F18C9EABE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D43AD5-2D26-42E7-9EA8-5A1C4A21A98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="202210-5星" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="202301-4.8星 " sheetId="3" r:id="rId1"/>
+    <sheet name="202210-5星" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +295,24 @@
   </si>
   <si>
     <t>2022/10/10开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/1/18离开低估，暂停。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/6/13暂停，离开低估。
+2023/1/18暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/1/18暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/8/31 start
+2023/1/18暂停</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +601,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -669,14 +681,21 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -961,15 +980,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B14994-D38D-43BB-AFDD-3E08246235AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6D3797-FF07-43D1-B855-2EC76777FC34}">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -982,32 +1001,32 @@
     <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="51" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1132,23 +1151,21 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="53">
         <v>217027</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>40</v>
-      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="16"/>
+      <c r="J7" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1256,7 +1273,7 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="54" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1269,7 +1286,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="26"/>
       <c r="J13" s="30" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
@@ -1358,23 +1375,21 @@
       <c r="A18">
         <v>7</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="54" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="3">
-        <v>10</v>
-      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="15"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3">
-        <v>10</v>
-      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="15"/>
       <c r="I18" s="26"/>
-      <c r="J18" s="16"/>
+      <c r="J18" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -1410,6 +1425,653 @@
       <c r="I20" s="41"/>
       <c r="J20" s="44"/>
     </row>
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:12" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22">
+        <v>10</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3">
+        <v>50</v>
+      </c>
+      <c r="H24" s="17">
+        <v>50</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="12">
+        <v>162412</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>26.25</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="12">
+        <v>501009</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>7</v>
+      </c>
+      <c r="B27" s="45">
+        <v>501090</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6">
+        <f>SUM(D28:H28)</f>
+        <v>737.25</v>
+      </c>
+      <c r="D28" s="5">
+        <f>SUM(D2:D27)</f>
+        <v>131</v>
+      </c>
+      <c r="E28" s="5">
+        <f>SUM(E2:E27)</f>
+        <v>170</v>
+      </c>
+      <c r="F28" s="5">
+        <f>SUM(F2:F27)</f>
+        <v>100</v>
+      </c>
+      <c r="G28" s="5">
+        <f>SUM(G2:G27)</f>
+        <v>190</v>
+      </c>
+      <c r="H28" s="5">
+        <f>SUM(H2:H27)</f>
+        <v>146.25</v>
+      </c>
+      <c r="I28" s="28"/>
+      <c r="J28" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B14994-D38D-43BB-AFDD-3E08246235AB}">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="8.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="54.25" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45">
+        <v>161017</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="46">
+        <v>519671</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="22">
+        <v>11</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22">
+        <v>100</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>217027</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22">
+        <v>50</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22">
+        <v>10</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="22">
+        <v>20</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22">
+        <v>10</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
+        <v>10</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="46">
+        <v>501050</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="12">
+        <v>164906</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3">
+        <v>10</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="45">
+        <v>110031</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="37"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="44"/>
+    </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
@@ -1607,7 +2269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O25"/>
   <sheetViews>
@@ -1626,12 +2288,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
